--- a/englishhao/稻壳/课程表/【横版】课程表.xlsx
+++ b/englishhao/稻壳/课程表/【横版】课程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="横版（初、高中）" sheetId="1" r:id="rId1"/>
@@ -20,256 +20,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>星期
 节次</t>
   </si>
   <si>
+    <t>作息时间</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>教师情况</t>
+  </si>
+  <si>
+    <t>Time Table</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>教师姓名</t>
+  </si>
+  <si>
+    <t>任教学科</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>晨读</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>第一节</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>第二节</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>课间操</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>第三节</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>第四节</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>信息技术</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>放学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>晚自习</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
     <t>作息时间
 Time Table</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期一
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Monday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期二
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Tuesday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期三
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Wednesday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期四
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Thursday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期五
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Friday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期六
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Saturday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">星期日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Sunday</t>
-    </r>
-  </si>
-  <si>
-    <t>教师情况</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>教师姓名</t>
-  </si>
-  <si>
-    <t>任教学科</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>晨读</t>
-  </si>
-  <si>
-    <t>12:00-14:00</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>第一节</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>第二节</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>课间操</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>第三节</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>第四节</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>中午</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>信息技术</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>放学</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>晚自习</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
     <t>星期一
 Monday</t>
   </si>
@@ -290,7 +191,7 @@
 Friday</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>备注：</t>
   </si>
   <si>
     <t>其他1</t>
@@ -314,11 +215,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +246,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -352,7 +259,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,10 +317,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,13 +373,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -411,54 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,24 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,192 +411,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -783,6 +690,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -859,14 +777,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,30 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -921,21 +832,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,6 +853,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -965,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,137 +923,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,52 +1075,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1183,12 +1153,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1198,13 +1171,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,10 +1207,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1305,8 +1299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505575" y="412750"/>
-          <a:ext cx="3888105" cy="333375"/>
+          <a:off x="5982970" y="412750"/>
+          <a:ext cx="3608070" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,8 +1411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="41275"/>
-          <a:ext cx="1856740" cy="727710"/>
+          <a:off x="520065" y="41275"/>
+          <a:ext cx="1693545" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,8 +1446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5455285" y="285750"/>
-          <a:ext cx="4248785" cy="333375"/>
+          <a:off x="5013960" y="285750"/>
+          <a:ext cx="3944620" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,8 +1637,8 @@
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>946150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1663,8 +1657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="41275"/>
-          <a:ext cx="1856740" cy="727710"/>
+          <a:off x="520065" y="41275"/>
+          <a:ext cx="1694180" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,22 +1930,22 @@
   <sheetPr/>
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="3.62727272727273" customWidth="1"/>
+    <col min="2" max="2" width="4.37272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="11.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="11" width="10.6272727272727" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" customWidth="1"/>
-    <col min="14" max="14" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.37272727272727" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="30" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:12">
@@ -1972,422 +1966,438 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="34"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:16">
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="19"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="23"/>
       <c r="M4" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="2:16">
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="10">
         <v>1</v>
       </c>
       <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="35"/>
+      <c r="O5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="51"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:16">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="10">
         <v>2</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="35"/>
+      <c r="O6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:16">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="10">
         <v>3</v>
       </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="35"/>
+      <c r="O7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:16">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="10">
         <v>4</v>
       </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="35"/>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:16">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="19"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="10">
         <v>5</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="35"/>
+      <c r="O9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:16">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="10">
         <v>6</v>
       </c>
       <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="35"/>
+      <c r="O10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:16">
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="10">
         <v>7</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="35"/>
+      <c r="O11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:16">
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="10">
         <v>8</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="35"/>
+      <c r="O12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:16">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="10">
         <v>9</v>
       </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="35"/>
+      <c r="O13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:16">
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="19"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="10">
         <v>10</v>
       </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="35"/>
+      <c r="O14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:16">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="10">
         <v>11</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="35"/>
+      <c r="O15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:16">
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
       <c r="M16" s="10">
         <v>12</v>
       </c>
       <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="35"/>
+      <c r="O16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:16">
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="10">
         <v>13</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="35"/>
+      <c r="O17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="51"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:16">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="10">
         <v>14</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="35"/>
+      <c r="O18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="11">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M3:P3"/>
@@ -2398,14 +2408,6 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <dataValidations count="2">
@@ -2417,7 +2419,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.511805555555556" right="0.55" top="0.629166666666667" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
+  <pageMargins left="0.511805555555556" right="0.550694444444444" top="0.629861111111111" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2429,21 +2431,21 @@
   <sheetPr/>
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="11.075" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.62727272727273" customWidth="1"/>
+    <col min="2" max="2" width="4.37272727272727" customWidth="1"/>
+    <col min="3" max="3" width="11.0727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.6272727272727" style="1" customWidth="1"/>
+    <col min="5" max="9" width="12.6272727272727" customWidth="1"/>
     <col min="10" max="10" width="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" customWidth="1"/>
-    <col min="12" max="13" width="8.625" customWidth="1"/>
-    <col min="14" max="14" width="15.425" customWidth="1"/>
+    <col min="12" max="13" width="8.62727272727273" customWidth="1"/>
+    <col min="14" max="14" width="15.4272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:10">
@@ -2464,25 +2466,25 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="8"/>
@@ -2498,310 +2500,310 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="2:14">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="2:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="8"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="2:14">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="8">
         <v>4</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="8"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:14">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="19"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="8">
         <v>5</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:14">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="8">
         <v>6</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="8"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:14">
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="8">
         <v>7</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="8"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:14">
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="8"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:14">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="8">
         <v>9</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:14">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="8">
         <v>10</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:14">
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:14">
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2850,101 +2852,101 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
